--- a/Database Notebook/xlsx/Reporte diario pdf/ReporteDiario2020-06-26.xlsx
+++ b/Database Notebook/xlsx/Reporte diario pdf/ReporteDiario2020-06-26.xlsx
@@ -415,10 +415,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.549</v>
+        <v>1549</v>
       </c>
       <c r="C2" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D2" t="n">
         <v>37</v>
@@ -443,7 +443,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.712000000000001</v>
+        <v>5712</v>
       </c>
       <c r="C3" t="n">
         <v>135</v>
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7.742000000000001</v>
+        <v>7742</v>
       </c>
       <c r="C4" t="n">
         <v>227</v>
@@ -489,7 +489,7 @@
         <v>128</v>
       </c>
       <c r="H4" t="n">
-        <v>1.658</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="5">
@@ -527,10 +527,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.705</v>
+        <v>2705</v>
       </c>
       <c r="C6" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D6" t="n">
         <v>43</v>
@@ -555,7 +555,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10.797</v>
+        <v>10797</v>
       </c>
       <c r="C7" t="n">
         <v>315</v>
@@ -573,7 +573,7 @@
         <v>204</v>
       </c>
       <c r="H7" t="n">
-        <v>2.152</v>
+        <v>2152</v>
       </c>
     </row>
     <row r="8">
@@ -583,13 +583,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>208.862</v>
+        <v>208862</v>
       </c>
       <c r="C8" t="n">
-        <v>2.616</v>
+        <v>2616</v>
       </c>
       <c r="D8" t="n">
-        <v>2.058</v>
+        <v>2058</v>
       </c>
       <c r="E8" t="n">
         <v>217</v>
@@ -598,10 +598,10 @@
         <v>341</v>
       </c>
       <c r="G8" t="n">
-        <v>4.342</v>
+        <v>4342</v>
       </c>
       <c r="H8" t="n">
-        <v>22.427</v>
+        <v>22427</v>
       </c>
     </row>
     <row r="9">
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5.136</v>
+        <v>5136</v>
       </c>
       <c r="C9" t="n">
         <v>268</v>
@@ -629,7 +629,7 @@
         <v>65</v>
       </c>
       <c r="H9" t="n">
-        <v>1.994</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="10">
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.013</v>
+        <v>5013</v>
       </c>
       <c r="C10" t="n">
         <v>181</v>
@@ -657,7 +657,7 @@
         <v>39</v>
       </c>
       <c r="H10" t="n">
-        <v>1.336</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="11">
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.274</v>
+        <v>2274</v>
       </c>
       <c r="C11" t="n">
         <v>41</v>
@@ -695,7 +695,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5.957999999999999</v>
+        <v>5958</v>
       </c>
       <c r="C12" t="n">
         <v>256</v>
@@ -713,7 +713,7 @@
         <v>45</v>
       </c>
       <c r="H12" t="n">
-        <v>1.963</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="13">
@@ -723,7 +723,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.105</v>
+        <v>3105</v>
       </c>
       <c r="C13" t="n">
         <v>41</v>
@@ -779,7 +779,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.541</v>
+        <v>1541</v>
       </c>
       <c r="C15" t="n">
         <v>36</v>
@@ -835,7 +835,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.397</v>
+        <v>1397</v>
       </c>
       <c r="C17" t="n">
         <v>12</v>
@@ -863,13 +863,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>263.36</v>
+        <v>263360</v>
       </c>
       <c r="C18" t="n">
-        <v>4.296</v>
+        <v>4296</v>
       </c>
       <c r="D18" t="n">
-        <v>3.422</v>
+        <v>3422</v>
       </c>
       <c r="E18" t="n">
         <v>413</v>
@@ -878,10 +878,10 @@
         <v>461</v>
       </c>
       <c r="G18" t="n">
-        <v>5.068000000000001</v>
+        <v>5068</v>
       </c>
       <c r="H18" t="n">
-        <v>34.861</v>
+        <v>34861</v>
       </c>
     </row>
   </sheetData>
